--- a/src/test/resources/Test_data_nykaa.xlsx
+++ b/src/test/resources/Test_data_nykaa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIKSNAIK\IdeaProjects\nakyaa_cucumber\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIKSNAIK\IdeaProjects\sprint_2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CABC901-096E-4788-AFFF-AEA300886490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86159F62-185B-4DEF-BB6F-0EB6627CA96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9DF09488-6219-4454-930E-12BE65B1C2BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>WrongPincode</t>
   </si>
@@ -50,15 +50,6 @@
     <t>581325'</t>
   </si>
   <si>
-    <t>Verify that the user able to work with the Luxe</t>
-  </si>
-  <si>
-    <t>ExceptedResultOfLuxePage</t>
-  </si>
-  <si>
-    <t>LUXE FAVOURITES</t>
-  </si>
-  <si>
     <t>ExceptedNullError</t>
   </si>
   <si>
@@ -81,13 +72,31 @@
   </si>
   <si>
     <t>Scenario_Name</t>
+  </si>
+  <si>
+    <t>Verify that the user able search product in brand drop down</t>
+  </si>
+  <si>
+    <t>BrandSearchBoxInput</t>
+  </si>
+  <si>
+    <t>Lakme</t>
+  </si>
+  <si>
+    <t>ExceptedResult</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Verify that the user able to work with the help</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +128,11 @@
       <color rgb="FF6A8759"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -146,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -159,6 +173,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -475,9 +492,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3DAD636-667D-474B-B475-018D460E3836}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -487,15 +506,16 @@
     <col min="4" max="4" width="14.54296875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="38.26953125" customWidth="1"/>
-    <col min="7" max="7" width="43.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -504,21 +524,24 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -527,18 +550,26 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="H4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
